--- a/logfc_Analysis/logfc_218_HC/meta_218flt_t.xlsx
+++ b/logfc_Analysis/logfc_218_HC/meta_218flt_t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_218_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02F31B-89CD-4457-A32C-63BDF2A8D05E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F8AA75-02F6-4FB7-922A-9EEF11621415}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{C4AF3D60-7E63-4667-A60E-692F3B5FC65B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4AF3D60-7E63-4667-A60E-692F3B5FC65B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="526">
   <si>
     <t>SYMBOL</t>
   </si>
@@ -1613,10 +1613,6 @@
   </si>
   <si>
     <t>Mitochondrion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Endoplsmic reticulum, Golgi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1996,7 +1992,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2896,7 +2892,7 @@
         <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E35" t="s">
         <v>183</v>
@@ -3072,7 +3068,7 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E42" t="s">
         <v>219</v>
@@ -3436,7 +3432,7 @@
         <v>289</v>
       </c>
       <c r="D56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E56" t="s">
         <v>290</v>
@@ -3618,7 +3614,7 @@
         <v>325</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E63" t="s">
         <v>326</v>
@@ -4135,7 +4131,7 @@
         <v>424</v>
       </c>
       <c r="D83" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E83" t="s">
         <v>425</v>
